--- a/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
+++ b/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <f>1-0.5*0.0769</f>
+        <f>2.0*1.5</f>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
+++ b/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <f>2.0*1.5</f>
+        <f>2*PI()*20^2/4</f>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
+++ b/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <f>2*PI()*20^2/4</f>
+        <f>0.9*651</f>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
+++ b/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <f>0.9*651</f>
+        <f>-0.5*0.41</f>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
+++ b/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <f>-0.5*0.41</f>
+        <f>4*pi()*20^2/4</f>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
+++ b/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <f>4*pi()*20^2/4</f>
+        <f>0.9*651</f>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
+++ b/src/main/java/com/application/api/calculator/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <f>0.9*651</f>
+        <f>0.12*1.88*(100*0.0179*30)^(1/3)*370*258*10^-3</f>
       </c>
     </row>
   </sheetData>
